--- a/simulated_data/10nodes_15len_trial7.xlsx
+++ b/simulated_data/10nodes_15len_trial7.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3356964054196555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3356964054208815</v>
+        <v>10.21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.495</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.609999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.164041889021412</v>
+        <v>10.21</v>
       </c>
       <c r="C3" t="n">
-        <v>3.16404188902259</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.445</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.725</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.425000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.005000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.484999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2379897216151047</v>
+        <v>5.73</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2379897216122774</v>
+        <v>8.445</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.055</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.654999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.98</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.850642372507203</v>
+        <v>6.495</v>
       </c>
       <c r="C5" t="n">
-        <v>1.850642372508045</v>
+        <v>3.135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.824999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.473294896101932</v>
+        <v>12.48</v>
       </c>
       <c r="C6" t="n">
-        <v>5.473294896100641</v>
+        <v>6.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.055</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.085</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.15</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.595549399160294</v>
+        <v>2.665</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.59554939915789</v>
+        <v>13.725</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.039999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.085</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.535</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4660368319307888</v>
+        <v>1.355</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4660368319297141</v>
+        <v>8.425000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.985</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5695372398497905</v>
+        <v>5.53</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5695372398492951</v>
+        <v>6.73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.629999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.824999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.975</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02451103455190388</v>
+        <v>0.765</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02451103455088289</v>
+        <v>8.005000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.654999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.035</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>8.484999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.985</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.09</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>6.27</v>
+        <v>7.61</v>
       </c>
       <c r="E2" t="n">
-        <v>6.2</v>
+        <v>5.82</v>
       </c>
       <c r="F2" t="n">
-        <v>12.63</v>
+        <v>12.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="H2" t="n">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="I2" t="n">
-        <v>4.07</v>
+        <v>3.06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.46</v>
+        <v>0.95</v>
       </c>
       <c r="K2" t="n">
-        <v>5.55</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.09</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.99</v>
+        <v>10.56</v>
       </c>
       <c r="E3" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="F3" t="n">
-        <v>7.33</v>
+        <v>9.42</v>
       </c>
       <c r="G3" t="n">
-        <v>11.87</v>
+        <v>9.98</v>
       </c>
       <c r="H3" t="n">
-        <v>7.9</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="J3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>9.25</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.27</v>
+        <v>7.61</v>
       </c>
       <c r="C4" t="n">
-        <v>9.99</v>
+        <v>10.56</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.92</v>
+        <v>7.96</v>
       </c>
       <c r="F4" t="n">
-        <v>16.19</v>
+        <v>18.14</v>
       </c>
       <c r="G4" t="n">
-        <v>5.57</v>
+        <v>4.12</v>
       </c>
       <c r="H4" t="n">
-        <v>6.98</v>
+        <v>7.61</v>
       </c>
       <c r="I4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>7.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.2</v>
+        <v>5.82</v>
       </c>
       <c r="C5" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="D5" t="n">
-        <v>6.92</v>
+        <v>7.96</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.460000000000001</v>
+        <v>10.32</v>
       </c>
       <c r="G5" t="n">
-        <v>8.710000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="H5" t="n">
-        <v>5.26</v>
+        <v>4.68</v>
       </c>
       <c r="I5" t="n">
-        <v>4.84</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>5.72</v>
+        <v>5.33</v>
       </c>
       <c r="K5" t="n">
-        <v>7.97</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.63</v>
+        <v>12.75</v>
       </c>
       <c r="C6" t="n">
-        <v>7.33</v>
+        <v>9.42</v>
       </c>
       <c r="D6" t="n">
-        <v>16.19</v>
+        <v>18.14</v>
       </c>
       <c r="E6" t="n">
-        <v>9.460000000000001</v>
+        <v>10.32</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.95</v>
+        <v>15.64</v>
       </c>
       <c r="H6" t="n">
-        <v>11.14</v>
+        <v>11.84</v>
       </c>
       <c r="I6" t="n">
-        <v>8.58</v>
+        <v>9.92</v>
       </c>
       <c r="J6" t="n">
-        <v>11.25</v>
+        <v>11.8</v>
       </c>
       <c r="K6" t="n">
-        <v>9.02</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87</v>
+        <v>9.98</v>
       </c>
       <c r="D7" t="n">
-        <v>5.57</v>
+        <v>4.12</v>
       </c>
       <c r="E7" t="n">
-        <v>8.710000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="F7" t="n">
-        <v>15.95</v>
+        <v>15.64</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.81</v>
+        <v>4.02</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>5.76</v>
       </c>
       <c r="J7" t="n">
-        <v>4.76</v>
+        <v>4.43</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="C8" t="n">
-        <v>7.9</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>6.98</v>
+        <v>7.61</v>
       </c>
       <c r="E8" t="n">
-        <v>5.26</v>
+        <v>4.68</v>
       </c>
       <c r="F8" t="n">
-        <v>11.14</v>
+        <v>11.84</v>
       </c>
       <c r="G8" t="n">
-        <v>4.81</v>
+        <v>4.02</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.59</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="K8" t="n">
-        <v>4.52</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.07</v>
+        <v>3.06</v>
       </c>
       <c r="C9" t="n">
-        <v>6.52</v>
+        <v>6.75</v>
       </c>
       <c r="D9" t="n">
-        <v>8.970000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>4.84</v>
+        <v>3.65</v>
       </c>
       <c r="F9" t="n">
-        <v>8.58</v>
+        <v>9.92</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>5.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.59</v>
+        <v>1.98</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.67</v>
+        <v>2.21</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.46</v>
+        <v>0.95</v>
       </c>
       <c r="C10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>7.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>5.72</v>
+        <v>5.33</v>
       </c>
       <c r="F10" t="n">
-        <v>11.25</v>
+        <v>11.8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.76</v>
+        <v>4.43</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I10" t="n">
-        <v>2.67</v>
+        <v>2.21</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.22</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.55</v>
+        <v>4.56</v>
       </c>
       <c r="C11" t="n">
-        <v>9.25</v>
+        <v>8.82</v>
       </c>
       <c r="D11" t="n">
-        <v>11.49</v>
+        <v>11.68</v>
       </c>
       <c r="E11" t="n">
-        <v>7.97</v>
+        <v>6.38</v>
       </c>
       <c r="F11" t="n">
-        <v>9.02</v>
+        <v>8.69</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.52</v>
+        <v>4.11</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="J11" t="n">
-        <v>4.22</v>
+        <v>3.68</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4164068059801049</v>
+        <v>10.79374419133033</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.161553579943902</v>
+        <v>10.5248185012028</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.911983369033825</v>
+        <v>2.676454566589737</v>
       </c>
       <c r="C3" t="n">
-        <v>5.300891050039967</v>
+        <v>5.976421661462108</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.756899908533445</v>
+        <v>5.632943946802623</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.271170067360089</v>
+        <v>16.1134919481821</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.940295830167388</v>
+        <v>5.479937792464361</v>
       </c>
       <c r="C5" t="n">
-        <v>2.052845510631408</v>
+        <v>8.150159635011205</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.339392313508785</v>
+        <v>7.869719777235797</v>
       </c>
       <c r="C6" t="n">
-        <v>9.122504975257241</v>
+        <v>-1.884581910406995</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5864170364226307</v>
+        <v>8.978910113122465</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.337538123600985</v>
+        <v>13.71120469723577</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7351206494282817</v>
+        <v>9.861281036556566</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.707928823491877</v>
+        <v>9.788844553855192</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.708930343459476</v>
+        <v>9.126321800659367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6956282399343442</v>
+        <v>7.954109581389148</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.177194726649788</v>
+        <v>10.60873862417707</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.916501416701379</v>
+        <v>9.591274600222057</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.818551305130851</v>
+        <v>11.49735515424408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2228222352352681</v>
+        <v>6.015125108958888</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.99</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>5.35</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>5.78</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
-        <v>11.45</v>
+        <v>7.27</v>
       </c>
       <c r="G2" t="n">
-        <v>3.42</v>
+        <v>2.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>1.13</v>
       </c>
       <c r="I2" t="n">
-        <v>6.85</v>
+        <v>1.28</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5</v>
+        <v>0.51</v>
       </c>
       <c r="K2" t="n">
-        <v>5.99</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.99</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.7</v>
+        <v>4.81</v>
       </c>
       <c r="E3" t="n">
-        <v>7.27</v>
+        <v>1.86</v>
       </c>
       <c r="F3" t="n">
-        <v>8.99</v>
+        <v>3.27</v>
       </c>
       <c r="G3" t="n">
-        <v>12.3</v>
+        <v>6.73</v>
       </c>
       <c r="H3" t="n">
         <v>5.13</v>
       </c>
       <c r="I3" t="n">
-        <v>3.21</v>
+        <v>5.28</v>
       </c>
       <c r="J3" t="n">
-        <v>7.81</v>
+        <v>4.51</v>
       </c>
       <c r="K3" t="n">
-        <v>10.06</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.35</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>7.7</v>
+        <v>4.81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.199999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="F4" t="n">
-        <v>14.12</v>
+        <v>8.08</v>
       </c>
       <c r="G4" t="n">
-        <v>8.130000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>4.39</v>
+        <v>0.32</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>0.47</v>
       </c>
       <c r="J4" t="n">
-        <v>3.96</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>10.59</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.78</v>
+        <v>2.14</v>
       </c>
       <c r="C5" t="n">
-        <v>7.27</v>
+        <v>1.86</v>
       </c>
       <c r="D5" t="n">
-        <v>9.199999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.67</v>
+        <v>5.12</v>
       </c>
       <c r="G5" t="n">
-        <v>7.7</v>
+        <v>4.87</v>
       </c>
       <c r="H5" t="n">
-        <v>5.03</v>
+        <v>3.28</v>
       </c>
       <c r="I5" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="J5" t="n">
-        <v>5.99</v>
+        <v>2.65</v>
       </c>
       <c r="K5" t="n">
-        <v>2.89</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.45</v>
+        <v>7.27</v>
       </c>
       <c r="C6" t="n">
-        <v>8.99</v>
+        <v>3.27</v>
       </c>
       <c r="D6" t="n">
-        <v>14.12</v>
+        <v>8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>5.67</v>
+        <v>5.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.26</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>9.73</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.74</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>11.45</v>
+        <v>7.78</v>
       </c>
       <c r="K6" t="n">
-        <v>7.17</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.42</v>
+        <v>2.73</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3</v>
+        <v>6.73</v>
       </c>
       <c r="D7" t="n">
-        <v>8.130000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="E7" t="n">
-        <v>7.7</v>
+        <v>4.87</v>
       </c>
       <c r="F7" t="n">
-        <v>13.26</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.17</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.84</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>4.81</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
-        <v>6.53</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.85</v>
+        <v>1.13</v>
       </c>
       <c r="C8" t="n">
         <v>5.13</v>
       </c>
       <c r="D8" t="n">
-        <v>4.39</v>
+        <v>0.32</v>
       </c>
       <c r="E8" t="n">
-        <v>5.03</v>
+        <v>3.28</v>
       </c>
       <c r="F8" t="n">
-        <v>9.73</v>
+        <v>8.4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.17</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.64</v>
+        <v>0.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.67</v>
+        <v>0.62</v>
       </c>
       <c r="K8" t="n">
-        <v>6.95</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.85</v>
+        <v>1.28</v>
       </c>
       <c r="C9" t="n">
-        <v>3.21</v>
+        <v>5.28</v>
       </c>
       <c r="D9" t="n">
-        <v>7.6</v>
+        <v>0.47</v>
       </c>
       <c r="E9" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="F9" t="n">
-        <v>6.74</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>9.84</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.64</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.1</v>
+        <v>0.77</v>
       </c>
       <c r="K9" t="n">
-        <v>6.85</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
+        <v>0.51</v>
       </c>
       <c r="C10" t="n">
-        <v>7.81</v>
+        <v>4.51</v>
       </c>
       <c r="D10" t="n">
-        <v>3.96</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>5.99</v>
+        <v>2.65</v>
       </c>
       <c r="F10" t="n">
-        <v>11.45</v>
+        <v>7.78</v>
       </c>
       <c r="G10" t="n">
-        <v>4.81</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>2.67</v>
+        <v>0.62</v>
       </c>
       <c r="I10" t="n">
-        <v>6.1</v>
+        <v>0.77</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.85</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10.06</v>
+        <v>3.06</v>
       </c>
       <c r="D11" t="n">
-        <v>10.59</v>
+        <v>1.75</v>
       </c>
       <c r="E11" t="n">
-        <v>2.89</v>
+        <v>1.2</v>
       </c>
       <c r="F11" t="n">
-        <v>7.17</v>
+        <v>6.33</v>
       </c>
       <c r="G11" t="n">
-        <v>6.53</v>
+        <v>3.67</v>
       </c>
       <c r="H11" t="n">
-        <v>6.95</v>
+        <v>2.07</v>
       </c>
       <c r="I11" t="n">
-        <v>6.85</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>6.85</v>
+        <v>1.45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3267177798448675</v>
+        <v>0.3356964054196555</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05758685398348271</v>
+        <v>0.3356964054208815</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3422633460105747</v>
+        <v>3.164041889021412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4425846990487244</v>
+        <v>3.16404188902259</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373555533068139</v>
+        <v>-0.2379897216151047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4367770700761355</v>
+        <v>-0.2379897216122774</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1900016082098867</v>
+        <v>1.850642372507203</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2165672342300956</v>
+        <v>1.850642372508045</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7096144381801496</v>
+        <v>5.473294896101932</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3142545988659797</v>
+        <v>5.473294896100641</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5263252593560472</v>
+        <v>-1.595549399160294</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3045489765975773</v>
+        <v>-1.59554939915789</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05853676539546763</v>
+        <v>-0.4660368319307888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1816838254931944</v>
+        <v>-0.4660368319297141</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2788690982273056</v>
+        <v>-0.5695372398497905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148000290394249</v>
+        <v>-0.5695372398492951</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2879650828717877</v>
+        <v>-0.02451103455190388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08111787492994368</v>
+        <v>-0.02451103455088289</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05998068225436579</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4583075836396786</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.08</v>
+        <v>9.09</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2</v>
+        <v>6.27</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="F2" t="n">
-        <v>11.44</v>
+        <v>12.63</v>
       </c>
       <c r="G2" t="n">
-        <v>4.52</v>
+        <v>3.33</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36</v>
+        <v>4.07</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="K2" t="n">
-        <v>2.03</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.08</v>
+        <v>9.09</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.28</v>
+        <v>9.99</v>
       </c>
       <c r="E3" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>5.36</v>
+        <v>7.33</v>
       </c>
       <c r="G3" t="n">
-        <v>10.6</v>
+        <v>11.87</v>
       </c>
       <c r="H3" t="n">
-        <v>6.91</v>
+        <v>7.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7.44</v>
+        <v>6.52</v>
       </c>
       <c r="J3" t="n">
-        <v>6.36</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>4.05</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>6.27</v>
       </c>
       <c r="C4" t="n">
-        <v>13.28</v>
+        <v>9.99</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>6.92</v>
       </c>
       <c r="F4" t="n">
-        <v>18.65</v>
+        <v>16.19</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>5.57</v>
       </c>
       <c r="H4" t="n">
-        <v>6.38</v>
+        <v>6.98</v>
       </c>
       <c r="I4" t="n">
-        <v>5.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>6.93</v>
+        <v>7.32</v>
       </c>
       <c r="K4" t="n">
-        <v>9.23</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="C5" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6</v>
+        <v>6.92</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.039999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>7.92</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.22</v>
+        <v>5.26</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.84</v>
       </c>
       <c r="J5" t="n">
-        <v>3.68</v>
+        <v>5.72</v>
       </c>
       <c r="K5" t="n">
-        <v>1.37</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.44</v>
+        <v>12.63</v>
       </c>
       <c r="C6" t="n">
-        <v>5.36</v>
+        <v>7.33</v>
       </c>
       <c r="D6" t="n">
-        <v>18.65</v>
+        <v>16.19</v>
       </c>
       <c r="E6" t="n">
-        <v>8.039999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
       <c r="H6" t="n">
-        <v>12.27</v>
+        <v>11.14</v>
       </c>
       <c r="I6" t="n">
-        <v>12.8</v>
+        <v>8.58</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72</v>
+        <v>11.25</v>
       </c>
       <c r="K6" t="n">
-        <v>9.41</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.52</v>
+        <v>3.33</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6</v>
+        <v>11.87</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68</v>
+        <v>5.57</v>
       </c>
       <c r="E7" t="n">
-        <v>7.92</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.81</v>
       </c>
       <c r="I7" t="n">
-        <v>3.17</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="K7" t="n">
-        <v>6.55</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="n">
-        <v>6.38</v>
+        <v>6.98</v>
       </c>
       <c r="E8" t="n">
-        <v>4.22</v>
+        <v>5.26</v>
       </c>
       <c r="F8" t="n">
-        <v>12.27</v>
+        <v>11.14</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>4.81</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.53</v>
+        <v>2.59</v>
       </c>
       <c r="J8" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="K8" t="n">
-        <v>2.86</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.36</v>
+        <v>4.07</v>
       </c>
       <c r="C9" t="n">
-        <v>7.44</v>
+        <v>6.52</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>4.75</v>
+        <v>4.84</v>
       </c>
       <c r="F9" t="n">
-        <v>12.8</v>
+        <v>8.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.17</v>
+        <v>7.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>2.59</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>2.67</v>
       </c>
       <c r="K9" t="n">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="C10" t="n">
-        <v>6.36</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>6.93</v>
+        <v>7.32</v>
       </c>
       <c r="E10" t="n">
-        <v>3.68</v>
+        <v>5.72</v>
       </c>
       <c r="F10" t="n">
-        <v>11.72</v>
+        <v>11.25</v>
       </c>
       <c r="G10" t="n">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>1.08</v>
+        <v>2.67</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.31</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.03</v>
+        <v>5.55</v>
       </c>
       <c r="C11" t="n">
-        <v>4.05</v>
+        <v>9.25</v>
       </c>
       <c r="D11" t="n">
-        <v>9.23</v>
+        <v>11.49</v>
       </c>
       <c r="E11" t="n">
-        <v>1.37</v>
+        <v>7.97</v>
       </c>
       <c r="F11" t="n">
-        <v>9.41</v>
+        <v>9.02</v>
       </c>
       <c r="G11" t="n">
-        <v>6.55</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>4.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>2.31</v>
+        <v>4.22</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6230974187609362</v>
+        <v>-3.181643267419666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6230900412092836</v>
+        <v>0.2143875386073042</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.923302762245768</v>
+        <v>5.475443350979901</v>
       </c>
       <c r="C3" t="n">
-        <v>4.923302866326058</v>
+        <v>-2.568776634492491</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.468948667929751</v>
+        <v>-3.896192140387024</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.468948805602768</v>
+        <v>-6.01701563839762</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.026813800265106</v>
+        <v>2.235781707905746</v>
       </c>
       <c r="C5" t="n">
-        <v>3.026813366020009</v>
+        <v>-2.803710856634295</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.715263463912521</v>
+        <v>8.891525913191407</v>
       </c>
       <c r="C6" t="n">
-        <v>8.715263551006869</v>
+        <v>3.913106828550454</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.574303875158113</v>
+        <v>-6.287379912023777</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.574304469550629</v>
+        <v>-0.9884979177116326</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04005852995860747</v>
+        <v>-1.751244718419832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04005964384509773</v>
+        <v>0.6249522370510334</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3353534398816523</v>
+        <v>0.5854761732828246</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3353536410933489</v>
+        <v>1.749731032702186</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4278521002635343</v>
+        <v>-1.987524606713028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4278647888594029</v>
+        <v>1.052858648040283</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.06028826211244</v>
+        <v>-0.08424250039655547</v>
       </c>
       <c r="C11" t="n">
-        <v>2.060287789227529</v>
+        <v>4.822964762284778</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001616477966308594</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001790523529052734</v>
+        <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3587219715118408</v>
+        <v>8.23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9534256458282471</v>
+        <v>5.84</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09402751922607422</v>
+        <v>6.28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1909453868865967</v>
+        <v>5.63</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7541024684906006</v>
+        <v>2.92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.09684558915055941</v>
       </c>
       <c r="C2" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.017543859649123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.967333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2859273428876073</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001616477966308594</v>
+        <v>0.1252452711346531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.3041915603499157</v>
       </c>
       <c r="C3" t="n">
-        <v>6.285</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6169590643274855</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.178888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1783117834949651</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001790523529052734</v>
+        <v>-0.01870804541924168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.05121708089200377</v>
       </c>
       <c r="C4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6394707828004411</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.421777777777778</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2190995309592299</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3587219715118408</v>
+        <v>-0.6198526665708997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.1476092160993715</v>
       </c>
       <c r="C5" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9578651685393259</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.260888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5055689572468012</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3414634146341464</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9534256458282471</v>
+        <v>-0.4125443876209152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.3528793708976491</v>
       </c>
       <c r="C6" t="n">
-        <v>2.369999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4302325581395349</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7115555555555558</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1225963528846305</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09402751922607422</v>
+        <v>0.6432119290338436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.3993464985741343</v>
       </c>
       <c r="C7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.104651162790698</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.808888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4248072520494284</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1909453868865967</v>
+        <v>0.2843016713566014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.365556592173084</v>
       </c>
       <c r="C8" t="n">
-        <v>7.02</v>
+        <v>0.1457506428946706</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2343509744143565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2157703586821028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.087620986608616</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3509328786465498</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.470366266327668</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2982315871071689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.91</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8367103694874851</v>
+        <v>6.38</v>
       </c>
       <c r="E8" t="n">
-        <v>1.824</v>
+        <v>4.22</v>
       </c>
       <c r="F8" t="n">
-        <v>0.312555734796141</v>
+        <v>12.27</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07317073170731707</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7541024684906006</v>
+        <v>0.53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6230974187609362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6230900412092836</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.923302762245768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.923302866326058</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.468948667929751</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.468948805602768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.026813800265106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.026813366020009</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.715263463912521</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.715263551006869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.574303875158113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.574304469550629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04005852995860747</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04005964384509773</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3353534398816523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3353536410933489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4278521002635343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4278647888594029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.06028826211244</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.060287789227529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3287649059836013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.08913912456823342</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4810474708664767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1216649354160028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.06329407675014839</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.673047159779258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2124737252240381</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09850570110692007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6023836972720248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1112484408308977</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3696182100793544</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4291598520071195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2421554478524687</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3039308195624485</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02124747781664601</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2742207727078289</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2251571860640069</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3076297910045876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04566758881839793</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.236208699636469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-8.054769199493499</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.307753840124478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.37586195949835</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.649523170792013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.335617873905581</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.75288397919794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.826611424326365</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.545879579622646</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21.59214590208305</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2094420024248071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-10.96781675049455</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.646708012504206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5.508582336484844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.511198492044983</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2287761653809144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.588056327066737</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.627182479676351</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.258628436059052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.928125519527977</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.71991564439674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002353191375732422</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002346038818359375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002369880676269531</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.065154075622559</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8613080978393555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2226338386535645</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06496500968933105</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2591595649719238</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.009807825088500977</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00781559944152832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.19</v>
+        <v>9.81</v>
       </c>
       <c r="D2" t="n">
-        <v>6.65</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10.22</v>
+        <v>6.12</v>
       </c>
       <c r="F2" t="n">
-        <v>8.56</v>
+        <v>12.66</v>
       </c>
       <c r="G2" t="n">
-        <v>3.08</v>
+        <v>4.43</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="I2" t="n">
-        <v>6.9</v>
+        <v>2.91</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>5.22</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.23</v>
+        <v>9.81</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.42</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.33</v>
+        <v>3.71</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8</v>
+        <v>7.02</v>
       </c>
       <c r="G3" t="n">
-        <v>9.449999999999999</v>
+        <v>10.82</v>
       </c>
       <c r="H3" t="n">
-        <v>9.890000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>7.27</v>
+        <v>6.91</v>
       </c>
       <c r="J3" t="n">
-        <v>9.050000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="K3" t="n">
-        <v>9.15</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.81</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.47</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.96</v>
+        <v>7.28</v>
       </c>
       <c r="F4" t="n">
-        <v>24.58</v>
+        <v>14.75</v>
       </c>
       <c r="G4" t="n">
-        <v>6.21</v>
+        <v>6.35</v>
       </c>
       <c r="H4" t="n">
-        <v>8.09</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>10.76</v>
+        <v>7.72</v>
       </c>
       <c r="J4" t="n">
-        <v>6.96</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>11.58</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.77</v>
+        <v>6.12</v>
       </c>
       <c r="C5" t="n">
-        <v>2.94</v>
+        <v>3.71</v>
       </c>
       <c r="D5" t="n">
-        <v>4.71</v>
+        <v>7.28</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.82</v>
+        <v>8.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5.96</v>
+        <v>7.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.79</v>
+        <v>5.01</v>
       </c>
       <c r="I5" t="n">
-        <v>4.27</v>
+        <v>3.22</v>
       </c>
       <c r="J5" t="n">
-        <v>8.92</v>
+        <v>5.44</v>
       </c>
       <c r="K5" t="n">
-        <v>8.08</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4</v>
+        <v>12.66</v>
       </c>
       <c r="C6" t="n">
-        <v>6.38</v>
+        <v>7.02</v>
       </c>
       <c r="D6" t="n">
-        <v>15.53</v>
+        <v>14.75</v>
       </c>
       <c r="E6" t="n">
-        <v>8.81</v>
+        <v>8.02</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.65</v>
+        <v>15.6</v>
       </c>
       <c r="H6" t="n">
-        <v>11.67</v>
+        <v>11.57</v>
       </c>
       <c r="I6" t="n">
-        <v>15.94</v>
+        <v>10.23</v>
       </c>
       <c r="J6" t="n">
-        <v>9.800000000000001</v>
+        <v>11.62</v>
       </c>
       <c r="K6" t="n">
-        <v>6.65</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.25</v>
+        <v>4.43</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>10.82</v>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>6.35</v>
       </c>
       <c r="E7" t="n">
-        <v>8.119999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="F7" t="n">
-        <v>12.52</v>
+        <v>15.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.01</v>
+        <v>4.89</v>
       </c>
       <c r="I7" t="n">
-        <v>11.72</v>
+        <v>5.51</v>
       </c>
       <c r="J7" t="n">
-        <v>5.55</v>
+        <v>5.33</v>
       </c>
       <c r="K7" t="n">
-        <v>6.35</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="C8" t="n">
-        <v>6.96</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.71</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>6.39</v>
+        <v>5.01</v>
       </c>
       <c r="F8" t="n">
-        <v>7.97</v>
+        <v>11.57</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>4.89</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="J8" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="K8" t="n">
-        <v>6.49</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16</v>
+        <v>2.91</v>
       </c>
       <c r="C9" t="n">
-        <v>6.19</v>
+        <v>6.91</v>
       </c>
       <c r="D9" t="n">
-        <v>6.5</v>
+        <v>7.72</v>
       </c>
       <c r="E9" t="n">
-        <v>5.38</v>
+        <v>3.22</v>
       </c>
       <c r="F9" t="n">
-        <v>6.78</v>
+        <v>10.23</v>
       </c>
       <c r="G9" t="n">
-        <v>6.92</v>
+        <v>5.51</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>2.29</v>
       </c>
       <c r="K9" t="n">
-        <v>2.77</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="C10" t="n">
-        <v>6.96</v>
+        <v>9.15</v>
       </c>
       <c r="D10" t="n">
-        <v>6.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>5.78</v>
+        <v>5.44</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>11.62</v>
       </c>
       <c r="G10" t="n">
-        <v>5.78</v>
+        <v>5.33</v>
       </c>
       <c r="H10" t="n">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>2.29</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.18</v>
       </c>
       <c r="C11" t="n">
-        <v>7.82</v>
+        <v>7.55</v>
       </c>
       <c r="D11" t="n">
-        <v>14.38</v>
+        <v>4.87</v>
       </c>
       <c r="E11" t="n">
-        <v>8.699999999999999</v>
+        <v>4.64</v>
       </c>
       <c r="F11" t="n">
-        <v>9.65</v>
+        <v>12.61</v>
       </c>
       <c r="G11" t="n">
-        <v>4.72</v>
+        <v>3.27</v>
       </c>
       <c r="H11" t="n">
-        <v>5.48</v>
+        <v>3.78</v>
       </c>
       <c r="I11" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="J11" t="n">
-        <v>5.45</v>
+        <v>4.44</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.701641208156159</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.971078171453703</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.24231506123029</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.11546997491223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.292118604537739</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.853640744161217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.200381793317279</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.559855609695334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.02734972960439</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.303164502495019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.544336574440071</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.512038680835484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.398084271956897</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.890340025825146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.950075519300508</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.594295387941747</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.737880207079543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.316201512743989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.923464593330326</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.752259062951765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.967333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2859273428876073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001616477966308594</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6169590643274855</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.178888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1783117834949651</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001790523529052734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6394707828004411</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.421777777777778</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2190995309592299</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3587219715118408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9578651685393259</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.260888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5055689572468012</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9534256458282471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.369999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4302325581395349</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7115555555555558</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1225963528846305</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09402751922607422</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.104651162790698</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.808888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4248072520494284</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1909453868865967</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8367103694874851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.312555734796141</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7541024684906006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.21</v>
+        <v>8.19</v>
       </c>
       <c r="D2" t="n">
-        <v>5.73</v>
+        <v>6.65</v>
       </c>
       <c r="E2" t="n">
-        <v>6.495</v>
+        <v>10.22</v>
       </c>
       <c r="F2" t="n">
-        <v>12.48</v>
+        <v>8.56</v>
       </c>
       <c r="G2" t="n">
-        <v>2.665</v>
+        <v>3.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1.355</v>
+        <v>1.55</v>
       </c>
       <c r="I2" t="n">
-        <v>5.53</v>
+        <v>6.9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.765</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.609999999999999</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.21</v>
+        <v>12.23</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.445</v>
+        <v>5.42</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135</v>
+        <v>3.33</v>
       </c>
       <c r="F3" t="n">
-        <v>6.59</v>
+        <v>6.8</v>
       </c>
       <c r="G3" t="n">
-        <v>13.725</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>8.425000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>6.73</v>
+        <v>7.27</v>
       </c>
       <c r="J3" t="n">
-        <v>8.005000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>8.484999999999999</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.73</v>
+        <v>4.81</v>
       </c>
       <c r="C4" t="n">
-        <v>8.445</v>
+        <v>11.47</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.835</v>
+        <v>6.96</v>
       </c>
       <c r="F4" t="n">
-        <v>20.055</v>
+        <v>24.58</v>
       </c>
       <c r="G4" t="n">
-        <v>4.955</v>
+        <v>6.21</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>8.09</v>
       </c>
       <c r="I4" t="n">
-        <v>8.629999999999999</v>
+        <v>10.76</v>
       </c>
       <c r="J4" t="n">
-        <v>6.654999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="K4" t="n">
-        <v>12.98</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.495</v>
+        <v>2.77</v>
       </c>
       <c r="C5" t="n">
-        <v>3.135</v>
+        <v>2.94</v>
       </c>
       <c r="D5" t="n">
-        <v>5.835</v>
+        <v>4.71</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.315</v>
+        <v>5.82</v>
       </c>
       <c r="G5" t="n">
-        <v>7.039999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="H5" t="n">
-        <v>6.09</v>
+        <v>5.79</v>
       </c>
       <c r="I5" t="n">
-        <v>4.824999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="J5" t="n">
-        <v>7.35</v>
+        <v>8.92</v>
       </c>
       <c r="K5" t="n">
-        <v>8.390000000000001</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.48</v>
+        <v>16.4</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59</v>
+        <v>6.38</v>
       </c>
       <c r="D6" t="n">
-        <v>20.055</v>
+        <v>15.53</v>
       </c>
       <c r="E6" t="n">
-        <v>7.315</v>
+        <v>8.81</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.085</v>
+        <v>27.65</v>
       </c>
       <c r="H6" t="n">
-        <v>9.82</v>
+        <v>11.67</v>
       </c>
       <c r="I6" t="n">
-        <v>11.36</v>
+        <v>15.94</v>
       </c>
       <c r="J6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>8.15</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.665</v>
+        <v>2.25</v>
       </c>
       <c r="C7" t="n">
-        <v>13.725</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4.955</v>
+        <v>3.7</v>
       </c>
       <c r="E7" t="n">
-        <v>7.039999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>20.085</v>
+        <v>12.52</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.68</v>
+        <v>4.01</v>
       </c>
       <c r="I7" t="n">
-        <v>9.32</v>
+        <v>11.72</v>
       </c>
       <c r="J7" t="n">
-        <v>5.665</v>
+        <v>5.55</v>
       </c>
       <c r="K7" t="n">
-        <v>5.535</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.355</v>
+        <v>1.16</v>
       </c>
       <c r="C8" t="n">
-        <v>8.425000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="D8" t="n">
-        <v>7.4</v>
+        <v>6.71</v>
       </c>
       <c r="E8" t="n">
-        <v>6.09</v>
+        <v>6.39</v>
       </c>
       <c r="F8" t="n">
-        <v>9.82</v>
+        <v>7.97</v>
       </c>
       <c r="G8" t="n">
-        <v>3.68</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="K8" t="n">
-        <v>5.985</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.53</v>
+        <v>4.16</v>
       </c>
       <c r="C9" t="n">
-        <v>6.73</v>
+        <v>6.19</v>
       </c>
       <c r="D9" t="n">
-        <v>8.629999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="E9" t="n">
-        <v>4.824999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="F9" t="n">
-        <v>11.36</v>
+        <v>6.78</v>
       </c>
       <c r="G9" t="n">
-        <v>9.32</v>
+        <v>6.92</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="K9" t="n">
-        <v>2.975</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.765</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>8.005000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="D10" t="n">
-        <v>6.654999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="E10" t="n">
-        <v>7.35</v>
+        <v>5.78</v>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.665</v>
+        <v>5.78</v>
       </c>
       <c r="H10" t="n">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.29</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.035</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.609999999999999</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>8.484999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="D11" t="n">
-        <v>12.98</v>
+        <v>14.38</v>
       </c>
       <c r="E11" t="n">
-        <v>8.390000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>8.15</v>
+        <v>9.65</v>
       </c>
       <c r="G11" t="n">
-        <v>5.535</v>
+        <v>4.72</v>
       </c>
       <c r="H11" t="n">
-        <v>5.985</v>
+        <v>5.48</v>
       </c>
       <c r="I11" t="n">
-        <v>2.975</v>
+        <v>3.18</v>
       </c>
       <c r="J11" t="n">
-        <v>5.035</v>
+        <v>5.45</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.701641208156159</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.971078171453703</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.24231506123029</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.11546997491223</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.292118604537739</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.853640744161217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.200381793317279</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.559855609695334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.02734972960439</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.303164502495019</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.544336574440071</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.512038680835484</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6.398084271956897</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.890340025825146</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6.950075519300508</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.594295387941747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6.737880207079543</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.316201512743989</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.923464593330326</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.752259062951765</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="E2" t="n">
-        <v>2.14</v>
+        <v>5.32</v>
       </c>
       <c r="F2" t="n">
-        <v>7.27</v>
+        <v>11.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="I2" t="n">
-        <v>1.28</v>
+        <v>5.36</v>
       </c>
       <c r="J2" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>10.01</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.81</v>
+        <v>7.89</v>
       </c>
       <c r="E3" t="n">
-        <v>1.86</v>
+        <v>3.13</v>
       </c>
       <c r="F3" t="n">
-        <v>3.27</v>
+        <v>6.58</v>
       </c>
       <c r="G3" t="n">
-        <v>6.73</v>
+        <v>13.04</v>
       </c>
       <c r="H3" t="n">
-        <v>5.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5.28</v>
+        <v>6.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.51</v>
+        <v>7.94</v>
       </c>
       <c r="K3" t="n">
-        <v>3.06</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8100000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="C4" t="n">
-        <v>4.81</v>
+        <v>7.89</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.95</v>
+        <v>5.73</v>
       </c>
       <c r="F4" t="n">
-        <v>8.08</v>
+        <v>19.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>4.79</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>7.37</v>
       </c>
       <c r="I4" t="n">
-        <v>0.47</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>6.65</v>
       </c>
       <c r="K4" t="n">
-        <v>1.75</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.14</v>
+        <v>5.32</v>
       </c>
       <c r="C5" t="n">
-        <v>1.86</v>
+        <v>3.13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.95</v>
+        <v>5.73</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.12</v>
+        <v>7.16</v>
       </c>
       <c r="G5" t="n">
-        <v>4.87</v>
+        <v>6.96</v>
       </c>
       <c r="H5" t="n">
-        <v>3.28</v>
+        <v>6.08</v>
       </c>
       <c r="I5" t="n">
-        <v>3.42</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.65</v>
+        <v>7.18</v>
       </c>
       <c r="K5" t="n">
-        <v>1.2</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.27</v>
+        <v>11.85</v>
       </c>
       <c r="C6" t="n">
-        <v>3.27</v>
+        <v>6.58</v>
       </c>
       <c r="D6" t="n">
-        <v>8.08</v>
+        <v>19.54</v>
       </c>
       <c r="E6" t="n">
-        <v>5.12</v>
+        <v>7.16</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>18.61</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>9.65</v>
       </c>
       <c r="I6" t="n">
-        <v>8.550000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="J6" t="n">
-        <v>7.78</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>6.33</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="C7" t="n">
-        <v>6.73</v>
+        <v>13.04</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>4.79</v>
       </c>
       <c r="E7" t="n">
-        <v>4.87</v>
+        <v>6.96</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>18.61</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>3.67</v>
       </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>5.66</v>
       </c>
       <c r="K7" t="n">
-        <v>3.67</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="C8" t="n">
-        <v>5.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>7.37</v>
       </c>
       <c r="E8" t="n">
-        <v>3.28</v>
+        <v>6.08</v>
       </c>
       <c r="F8" t="n">
-        <v>8.4</v>
+        <v>9.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>3.67</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.15</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.28</v>
+        <v>5.36</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.47</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>3.42</v>
+        <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>8.550000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.77</v>
+        <v>3.28</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="C10" t="n">
-        <v>4.51</v>
+        <v>7.94</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>6.65</v>
       </c>
       <c r="E10" t="n">
-        <v>2.65</v>
+        <v>7.18</v>
       </c>
       <c r="F10" t="n">
-        <v>7.78</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>5.66</v>
       </c>
       <c r="H10" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="I10" t="n">
-        <v>0.77</v>
+        <v>3.28</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.45</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.57</v>
       </c>
       <c r="C11" t="n">
-        <v>3.06</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.75</v>
+        <v>12.9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>6.33</v>
+        <v>8.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3.67</v>
+        <v>5.47</v>
       </c>
       <c r="H11" t="n">
-        <v>2.07</v>
+        <v>5.97</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="J11" t="n">
-        <v>1.45</v>
+        <v>5.02</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
